--- a/common/Story.xlsx
+++ b/common/Story.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>序号</t>
   </si>
@@ -60,6 +60,52 @@
         <charset val="134"/>
       </rPr>
       <t>同id为一节</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">剧情触发位置
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>填入：场景id,建筑名称
+0=非触发剧情</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">解锁所需身份
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玩家等级限制</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">解锁所需关卡
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关卡id</t>
     </r>
   </si>
   <si>
@@ -243,14 +289,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">dialog_group </t>
+      <t xml:space="preserve">trigger_position </t>
     </r>
     <r>
       <rPr>
@@ -261,19 +300,12 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">start_dialog </t>
+      <t>array</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">prerequisite_lv </t>
     </r>
     <r>
       <rPr>
@@ -289,14 +321,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">end_dialog </t>
+      <t xml:space="preserve">prerequisite_Stage </t>
     </r>
     <r>
       <rPr>
@@ -319,7 +344,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">option_group </t>
+      <t xml:space="preserve">dialog_group </t>
     </r>
     <r>
       <rPr>
@@ -342,7 +367,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">option_dialog </t>
+      <t xml:space="preserve">start_dialog </t>
     </r>
     <r>
       <rPr>
@@ -365,7 +390,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">trigger_type </t>
+      <t xml:space="preserve">end_dialog </t>
     </r>
     <r>
       <rPr>
@@ -388,7 +413,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">trigger_par </t>
+      <t xml:space="preserve">option_group </t>
     </r>
     <r>
       <rPr>
@@ -411,7 +436,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">reward_id </t>
+      <t xml:space="preserve">option_dialog </t>
     </r>
     <r>
       <rPr>
@@ -424,6 +449,84 @@
       </rPr>
       <t>int</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">trigger_type </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">trigger_par </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">reward_id </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <t>home,boudoir</t>
+  </si>
+  <si>
+    <t>home, main_room</t>
+  </si>
+  <si>
+    <t>home,maid_room</t>
   </si>
 </sst>
 </file>
@@ -431,8 +534,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -459,6 +562,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -481,55 +628,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,14 +660,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -557,46 +668,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,13 +740,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,43 +806,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,55 +890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,55 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,11 +943,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,36 +973,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -908,8 +987,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,6 +1031,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -945,10 +1048,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,133 +1060,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1424,27 +1527,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="11" width="14.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81.75" spans="1:11">
+    <row r="1" ht="81.75" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1478,43 +1584,61 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:11">
+    <row r="2" ht="32.25" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1524,32 +1648,41 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="I3" s="1">
         <v>17</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
       <c r="J3" s="1">
         <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
       </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>9999</v>
       </c>
@@ -1559,32 +1692,41 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>9999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1">
+      <c r="I4" s="1">
         <v>4</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <v>9999</v>
       </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
@@ -1604,22 +1746,31 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>9999</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <v>18</v>
       </c>
-      <c r="I5" s="1">
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="1">
+      <c r="M5" s="1">
         <v>10000</v>
       </c>
-      <c r="K5" s="1">
+      <c r="N5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
@@ -1639,22 +1790,31 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>9999</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K6" s="1">
         <v>19</v>
       </c>
-      <c r="I6" s="1">
+      <c r="L6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="N6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
@@ -1664,28 +1824,37 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>10000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>20</v>
       </c>
-      <c r="F7" s="1">
+      <c r="I7" s="1">
         <v>21</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>4</v>
       </c>
     </row>

--- a/common/Story.xlsx
+++ b/common/Story.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>序号</t>
   </si>
@@ -60,52 +60,6 @@
         <charset val="134"/>
       </rPr>
       <t>同id为一节</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">剧情触发位置
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填入：场景id,建筑名称
-0=非触发剧情</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">解锁所需身份
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>玩家等级限制</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">解锁所需关卡
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关卡id</t>
     </r>
   </si>
   <si>
@@ -289,7 +243,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">trigger_position </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dialog_group </t>
     </r>
     <r>
       <rPr>
@@ -300,12 +261,19 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>array</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">prerequisite_lv </t>
+      <t>int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">start_dialog </t>
     </r>
     <r>
       <rPr>
@@ -321,7 +289,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">prerequisite_Stage </t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">end_dialog </t>
     </r>
     <r>
       <rPr>
@@ -344,7 +319,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">dialog_group </t>
+      <t xml:space="preserve">option_group </t>
     </r>
     <r>
       <rPr>
@@ -367,7 +342,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">start_dialog </t>
+      <t xml:space="preserve">option_dialog </t>
     </r>
     <r>
       <rPr>
@@ -390,7 +365,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">end_dialog </t>
+      <t xml:space="preserve">trigger_type </t>
     </r>
     <r>
       <rPr>
@@ -413,7 +388,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">option_group </t>
+      <t xml:space="preserve">trigger_par </t>
     </r>
     <r>
       <rPr>
@@ -436,7 +411,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">option_dialog </t>
+      <t xml:space="preserve">reward_id </t>
     </r>
     <r>
       <rPr>
@@ -449,84 +424,6 @@
       </rPr>
       <t>int</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">trigger_type </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">trigger_par </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">reward_id </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-  </si>
-  <si>
-    <t>home,boudoir</t>
-  </si>
-  <si>
-    <t>home, main_room</t>
-  </si>
-  <si>
-    <t>home,maid_room</t>
   </si>
 </sst>
 </file>
@@ -534,10 +431,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -562,6 +459,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -569,52 +526,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,35 +548,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,36 +579,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -740,19 +637,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,157 +781,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,17 +840,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,44 +877,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,8 +902,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,10 +945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1060,133 +957,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1527,30 +1424,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="12.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="11" width="14.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="13.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81.75" spans="1:14">
+    <row r="1" ht="81.75" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1584,61 +1478,43 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" ht="32.25" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" ht="32.25" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1648,23 +1524,23 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -1672,17 +1548,8 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>9999</v>
       </c>
@@ -1692,41 +1559,32 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
+      <c r="D4" s="1">
+        <v>9999</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
         <v>9999</v>
       </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
       <c r="K4" s="1">
         <v>0</v>
       </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>9999</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>10000</v>
       </c>
@@ -1746,31 +1604,22 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>9999</v>
+        <v>10000</v>
       </c>
       <c r="K5" s="1">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>10001</v>
       </c>
@@ -1790,31 +1639,22 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1">
-        <v>9999</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>19</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>10002</v>
       </c>
@@ -1824,37 +1664,28 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
+      <c r="D7" s="1">
+        <v>10000</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
         <v>4</v>
       </c>
     </row>

--- a/common/Story.xlsx
+++ b/common/Story.xlsx
@@ -431,10 +431,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -459,14 +459,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,6 +488,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -496,45 +525,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,54 +565,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -637,181 +637,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,26 +840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -875,25 +855,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -923,16 +894,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -945,10 +945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,133 +957,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6"/>
@@ -1607,7 +1607,7 @@
         <v>9999</v>
       </c>
       <c r="H5" s="1">
-        <v>18</v>
+        <v>9919</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>9999</v>
       </c>
       <c r="H6" s="1">
-        <v>19</v>
+        <v>9920</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
@@ -1668,10 +1668,10 @@
         <v>10000</v>
       </c>
       <c r="E7" s="1">
-        <v>20</v>
+        <v>9921</v>
       </c>
       <c r="F7" s="1">
-        <v>21</v>
+        <v>9922</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
